--- a/analysis/IL/IL2022-rv-points.xlsx
+++ b/analysis/IL/IL2022-rv-points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7542B2-3F52-154A-BBF1-4CA6C69B4F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197FBB19-8F4A-7347-9987-1E478EA05C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="9460" windowWidth="26040" windowHeight="14940" xr2:uid="{97C195A7-3689-6942-ACB0-56BF6A69CD1F}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{F3B7B9DD-D3C2-794D-BE97-D3CC7A07187F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{631500FD-3BB3-674B-A948-EA7960D9FBDE}" name="IL2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{B01A873E-704A-F443-A1A6-2B5FE33563B9}" name="IL2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-vi-points.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -63,9 +63,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>CD</t>
-  </si>
   <si>
     <t>composite</t>
   </si>
@@ -102,6 +99,9 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>RANK</t>
+  </si>
 </sst>
 </file>
 
@@ -135,12 +135,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -149,8 +158,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -173,7 +182,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="1" xr16:uid="{BC2FBD46-1887-8045-80F4-FC32622A991B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="1" xr16:uid="{CAB89BF3-C391-2242-A51B-24619232D844}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,77 +481,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3414C2E7-6B06-5841-9257-D4AE04494618}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E47403-D2F6-AD43-A3B0-A3797BC3117C}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20:L20"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0.319382</v>
       </c>
       <c r="C2" s="3">
-        <v>0.302205</v>
+        <v>0.28221299999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>0.29517700000000002</v>
+        <v>0.27477800000000002</v>
       </c>
       <c r="E2" s="3">
-        <v>0.33202900000000002</v>
+        <v>0.31764500000000001</v>
       </c>
       <c r="F2" s="3">
         <v>0.366838</v>
@@ -554,36 +563,36 @@
         <v>0.29217100000000001</v>
       </c>
       <c r="I2" s="3">
-        <v>0.32280999999999999</v>
+        <v>0.31368099999999999</v>
       </c>
       <c r="J2" s="3">
-        <v>1.2659E-2</v>
+        <v>1.5292999999999999E-2</v>
       </c>
       <c r="K2" s="3">
-        <v>-3.4280000000000001E-3</v>
+        <v>5.7010000000000003E-3</v>
       </c>
       <c r="L2" s="3">
-        <v>-0.27079500000000001</v>
+        <v>0.37278499999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0.32312099999999999</v>
       </c>
       <c r="C3" s="3">
-        <v>0.28221299999999999</v>
+        <v>0.302205</v>
       </c>
       <c r="D3" s="3">
-        <v>0.27477800000000002</v>
+        <v>0.29517700000000002</v>
       </c>
       <c r="E3" s="3">
-        <v>0.31764500000000001</v>
+        <v>0.33202900000000002</v>
       </c>
       <c r="F3" s="3">
-        <v>0.41222399999999998</v>
+        <v>0.36768400000000001</v>
       </c>
       <c r="G3" s="3">
         <v>0.369091</v>
@@ -592,21 +601,21 @@
         <v>0.31146299999999999</v>
       </c>
       <c r="I3" s="3">
-        <v>0.32790200000000003</v>
+        <v>0.32960800000000001</v>
       </c>
       <c r="J3" s="3">
-        <v>2.1673000000000001E-2</v>
+        <v>1.3266999999999999E-2</v>
       </c>
       <c r="K3" s="3">
-        <v>-4.7809999999999997E-3</v>
+        <v>-6.4869999999999997E-3</v>
       </c>
       <c r="L3" s="3">
-        <v>-0.22059699999999999</v>
+        <v>-0.488958</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>0.37722899999999998</v>
@@ -621,7 +630,7 @@
         <v>0.39492899999999997</v>
       </c>
       <c r="F4" s="3">
-        <v>0.36768400000000001</v>
+        <v>0.41222399999999998</v>
       </c>
       <c r="G4" s="3">
         <v>0.385627</v>
@@ -630,21 +639,21 @@
         <v>0.35516599999999998</v>
       </c>
       <c r="I4" s="3">
-        <v>0.37741400000000003</v>
+        <v>0.38483699999999998</v>
       </c>
       <c r="J4" s="3">
-        <v>6.2189999999999997E-3</v>
+        <v>8.0560000000000007E-3</v>
       </c>
       <c r="K4" s="3">
-        <v>-1.85E-4</v>
+        <v>-7.6080000000000002E-3</v>
       </c>
       <c r="L4" s="3">
-        <v>-2.9748E-2</v>
+        <v>-0.94438900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>0.53720400000000001</v>
@@ -659,30 +668,30 @@
         <v>0.54719499999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>0.531609</v>
+        <v>0.51759100000000002</v>
       </c>
       <c r="G5" s="3">
-        <v>0.55105599999999999</v>
+        <v>0.51363999999999999</v>
       </c>
       <c r="H5" s="3">
-        <v>0.517266</v>
+        <v>0.51609799999999995</v>
       </c>
       <c r="I5" s="3">
-        <v>0.53713500000000003</v>
+        <v>0.52836799999999995</v>
       </c>
       <c r="J5" s="3">
-        <v>4.9319999999999998E-3</v>
+        <v>5.8479999999999999E-3</v>
       </c>
       <c r="K5" s="3">
-        <v>6.8999999999999997E-5</v>
+        <v>8.8360000000000001E-3</v>
       </c>
       <c r="L5" s="3">
-        <v>1.3990000000000001E-2</v>
+        <v>1.5109440000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>0.54076800000000003</v>
@@ -694,7 +703,7 @@
         <v>0.54430100000000003</v>
       </c>
       <c r="E6" s="3">
-        <v>0.56179699999999999</v>
+        <v>0.56120999999999999</v>
       </c>
       <c r="F6" s="3">
         <v>0.53071000000000002</v>
@@ -703,62 +712,62 @@
         <v>0.52675899999999998</v>
       </c>
       <c r="H6" s="3">
-        <v>0.51609799999999995</v>
+        <v>0.517266</v>
       </c>
       <c r="I6" s="3">
-        <v>0.53917899999999996</v>
+        <v>0.53927599999999998</v>
       </c>
       <c r="J6" s="3">
-        <v>7.2110000000000004E-3</v>
+        <v>7.0260000000000001E-3</v>
       </c>
       <c r="K6" s="3">
-        <v>1.5889999999999999E-3</v>
+        <v>1.4920000000000001E-3</v>
       </c>
       <c r="L6" s="3">
-        <v>0.220358</v>
+        <v>0.21235399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>0.54406900000000002</v>
       </c>
       <c r="C7" s="3">
-        <v>0.57814600000000005</v>
+        <v>0.55741300000000005</v>
       </c>
       <c r="D7" s="3">
-        <v>0.55729099999999998</v>
+        <v>0.54466199999999998</v>
       </c>
       <c r="E7" s="3">
-        <v>0.56215199999999999</v>
+        <v>0.56179699999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.51759100000000002</v>
+        <v>0.53082300000000004</v>
       </c>
       <c r="G7" s="3">
-        <v>0.51363999999999999</v>
+        <v>0.54219600000000001</v>
       </c>
       <c r="H7" s="3">
         <v>0.51742900000000003</v>
       </c>
       <c r="I7" s="3">
-        <v>0.54104099999999999</v>
+        <v>0.54238699999999995</v>
       </c>
       <c r="J7" s="3">
-        <v>1.1467E-2</v>
+        <v>6.744E-3</v>
       </c>
       <c r="K7" s="3">
-        <v>3.0279999999999999E-3</v>
+        <v>1.6819999999999999E-3</v>
       </c>
       <c r="L7" s="3">
-        <v>0.26406200000000002</v>
+        <v>0.24940699999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>0.55135800000000001</v>
@@ -770,71 +779,71 @@
         <v>0.54605000000000004</v>
       </c>
       <c r="E8" s="3">
-        <v>0.56120999999999999</v>
+        <v>0.56215199999999999</v>
       </c>
       <c r="F8" s="3">
-        <v>0.55067299999999997</v>
+        <v>0.531609</v>
       </c>
       <c r="G8" s="3">
-        <v>0.54968899999999998</v>
+        <v>0.54697300000000004</v>
       </c>
       <c r="H8" s="3">
-        <v>0.53601100000000002</v>
+        <v>0.53162399999999999</v>
       </c>
       <c r="I8" s="3">
-        <v>0.55035000000000001</v>
+        <v>0.54614600000000002</v>
       </c>
       <c r="J8" s="3">
-        <v>3.6900000000000001E-3</v>
+        <v>5.2630000000000003E-3</v>
       </c>
       <c r="K8" s="3">
-        <v>1.008E-3</v>
+        <v>5.2119999999999996E-3</v>
       </c>
       <c r="L8" s="3">
-        <v>0.273171</v>
+        <v>0.99031000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>0.56110700000000002</v>
       </c>
       <c r="C9" s="3">
-        <v>0.55741300000000005</v>
+        <v>0.57814600000000005</v>
       </c>
       <c r="D9" s="3">
-        <v>0.54466199999999998</v>
+        <v>0.55729099999999998</v>
       </c>
       <c r="E9" s="3">
         <v>0.56626299999999996</v>
       </c>
       <c r="F9" s="3">
-        <v>0.57972999999999997</v>
+        <v>0.55067299999999997</v>
       </c>
       <c r="G9" s="3">
-        <v>0.58753999999999995</v>
+        <v>0.54968899999999998</v>
       </c>
       <c r="H9" s="3">
-        <v>0.53162399999999999</v>
+        <v>0.53601100000000002</v>
       </c>
       <c r="I9" s="3">
-        <v>0.56120499999999995</v>
+        <v>0.55634499999999998</v>
       </c>
       <c r="J9" s="3">
-        <v>8.6130000000000009E-3</v>
+        <v>5.9569999999999996E-3</v>
       </c>
       <c r="K9" s="3">
-        <v>-9.7999999999999997E-5</v>
+        <v>4.7619999999999997E-3</v>
       </c>
       <c r="L9" s="3">
-        <v>-1.1377999999999999E-2</v>
+        <v>0.799396</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>0.56711</v>
@@ -852,22 +861,22 @@
         <v>0.55725199999999997</v>
       </c>
       <c r="G10" s="3">
-        <v>0.54219600000000001</v>
+        <v>0.55105599999999999</v>
       </c>
       <c r="H10" s="3">
         <v>0.54717199999999999</v>
       </c>
       <c r="I10" s="3">
-        <v>0.564971</v>
+        <v>0.56644700000000003</v>
       </c>
       <c r="J10" s="3">
-        <v>7.4960000000000001E-3</v>
+        <v>6.7019999999999996E-3</v>
       </c>
       <c r="K10" s="3">
-        <v>2.1389999999999998E-3</v>
+        <v>6.6299999999999996E-4</v>
       </c>
       <c r="L10" s="3">
-        <v>0.28535199999999999</v>
+        <v>9.8926E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -887,30 +896,30 @@
         <v>0.59913499999999997</v>
       </c>
       <c r="F11" s="3">
-        <v>0.53082300000000004</v>
+        <v>0.57972999999999997</v>
       </c>
       <c r="G11" s="3">
-        <v>0.54697300000000004</v>
+        <v>0.58753999999999995</v>
       </c>
       <c r="H11" s="3">
         <v>0.55978899999999998</v>
       </c>
       <c r="I11" s="3">
-        <v>0.58187599999999995</v>
+        <v>0.59678799999999999</v>
       </c>
       <c r="J11" s="3">
-        <v>1.7100000000000001E-2</v>
+        <v>1.1030999999999999E-2</v>
       </c>
       <c r="K11" s="3">
-        <v>3.0479999999999999E-3</v>
+        <v>-1.1864E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>0.17824599999999999</v>
+        <v>-1.0755140000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>0.66888400000000003</v>
@@ -948,19 +957,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>0.69563600000000003</v>
       </c>
       <c r="C13" s="3">
-        <v>0.71029500000000001</v>
+        <v>0.70287699999999997</v>
       </c>
       <c r="D13" s="3">
-        <v>0.72559600000000002</v>
+        <v>0.72070599999999996</v>
       </c>
       <c r="E13" s="3">
-        <v>0.70746299999999995</v>
+        <v>0.70661700000000005</v>
       </c>
       <c r="F13" s="3">
         <v>0.65930100000000003</v>
@@ -972,33 +981,33 @@
         <v>0.68152500000000005</v>
       </c>
       <c r="I13" s="3">
-        <v>0.69436100000000001</v>
+        <v>0.69216800000000001</v>
       </c>
       <c r="J13" s="3">
-        <v>9.9129999999999999E-3</v>
+        <v>9.0089999999999996E-3</v>
       </c>
       <c r="K13" s="3">
-        <v>1.2750000000000001E-3</v>
+        <v>3.4680000000000002E-3</v>
       </c>
       <c r="L13" s="3">
-        <v>0.12861900000000001</v>
+        <v>0.38494800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>0.71305600000000002</v>
       </c>
       <c r="C14" s="3">
-        <v>0.71136200000000005</v>
+        <v>0.71029500000000001</v>
       </c>
       <c r="D14" s="3">
-        <v>0.73736199999999996</v>
+        <v>0.72559600000000002</v>
       </c>
       <c r="E14" s="3">
-        <v>0.72424999999999995</v>
+        <v>0.70746299999999995</v>
       </c>
       <c r="F14" s="3">
         <v>0.69690300000000005</v>
@@ -1010,33 +1019,33 @@
         <v>0.69308000000000003</v>
       </c>
       <c r="I14" s="3">
-        <v>0.71189499999999994</v>
+        <v>0.70695799999999998</v>
       </c>
       <c r="J14" s="3">
-        <v>6.8129999999999996E-3</v>
+        <v>4.6709999999999998E-3</v>
       </c>
       <c r="K14" s="3">
-        <v>1.1609999999999999E-3</v>
+        <v>6.0980000000000001E-3</v>
       </c>
       <c r="L14" s="3">
-        <v>0.17041000000000001</v>
+        <v>1.3055019999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>0.71345800000000004</v>
       </c>
       <c r="C15" s="3">
-        <v>0.70287699999999997</v>
+        <v>0.71136200000000005</v>
       </c>
       <c r="D15" s="3">
-        <v>0.72070599999999996</v>
+        <v>0.73736199999999996</v>
       </c>
       <c r="E15" s="3">
-        <v>0.70661700000000005</v>
+        <v>0.70763900000000002</v>
       </c>
       <c r="F15" s="3">
         <v>0.72255800000000003</v>
@@ -1048,21 +1057,21 @@
         <v>0.69940899999999995</v>
       </c>
       <c r="I15" s="3">
-        <v>0.71350800000000003</v>
+        <v>0.71786799999999995</v>
       </c>
       <c r="J15" s="3">
-        <v>4.9300000000000004E-3</v>
+        <v>5.8050000000000003E-3</v>
       </c>
       <c r="K15" s="3">
-        <v>-5.0000000000000002E-5</v>
+        <v>-4.4099999999999999E-3</v>
       </c>
       <c r="L15" s="3">
-        <v>-1.0142E-2</v>
+        <v>-0.75968999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>0.73339600000000005</v>
@@ -1074,33 +1083,33 @@
         <v>0.75004099999999996</v>
       </c>
       <c r="E16" s="3">
-        <v>0.70763900000000002</v>
+        <v>0.72424999999999995</v>
       </c>
       <c r="F16" s="3">
-        <v>0.75389700000000004</v>
+        <v>0.73372099999999996</v>
       </c>
       <c r="G16" s="3">
-        <v>0.74488200000000004</v>
+        <v>0.73659600000000003</v>
       </c>
       <c r="H16" s="3">
-        <v>0.72574899999999998</v>
+        <v>0.71308700000000003</v>
       </c>
       <c r="I16" s="3">
-        <v>0.73284099999999996</v>
+        <v>0.72875500000000004</v>
       </c>
       <c r="J16" s="3">
-        <v>7.9450000000000007E-3</v>
+        <v>5.77E-3</v>
       </c>
       <c r="K16" s="3">
-        <v>5.5500000000000005E-4</v>
+        <v>4.6410000000000002E-3</v>
       </c>
       <c r="L16" s="3">
-        <v>6.9855E-2</v>
+        <v>0.80433299999999996</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>0.74317100000000003</v>
@@ -1115,30 +1124,30 @@
         <v>0.76053300000000001</v>
       </c>
       <c r="F17" s="3">
-        <v>0.73372099999999996</v>
+        <v>0.75389700000000004</v>
       </c>
       <c r="G17" s="3">
-        <v>0.73659600000000003</v>
+        <v>0.74488200000000004</v>
       </c>
       <c r="H17" s="3">
-        <v>0.71308700000000003</v>
+        <v>0.72574899999999998</v>
       </c>
       <c r="I17" s="3">
-        <v>0.74156200000000005</v>
+        <v>0.74841599999999997</v>
       </c>
       <c r="J17" s="3">
-        <v>8.2450000000000006E-3</v>
+        <v>6.5160000000000001E-3</v>
       </c>
       <c r="K17" s="3">
-        <v>1.609E-3</v>
+        <v>-5.2449999999999997E-3</v>
       </c>
       <c r="L17" s="3">
-        <v>0.19514899999999999</v>
+        <v>-0.80494200000000005</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>0.86389499999999997</v>
@@ -1176,20 +1185,23 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="3">
         <f>AVERAGE(J2:J18)</f>
-        <v>9.5525882352941183E-3</v>
+        <v>8.2615294117647058E-3</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ref="K20:L20" si="0">AVERAGE(K2:K18)</f>
-        <v>6.5294117647058823E-4</v>
+        <v>6.5305882352941185E-4</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="0"/>
-        <v>9.6223764705882342E-2</v>
-      </c>
+        <v>0.1785096470588235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/IL/IL2022-rv-points.xlsx
+++ b/analysis/IL/IL2022-rv-points.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197FBB19-8F4A-7347-9987-1E478EA05C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00CC168-A3DA-3147-BAC9-DC79F195F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{F3B7B9DD-D3C2-794D-BE97-D3CC7A07187F}"/>
+    <workbookView xWindow="7060" yWindow="5880" windowWidth="27640" windowHeight="16940" xr2:uid="{2545852C-1770-104E-9AB9-A6A922204147}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="IL2022_vi_points" localSheetId="0">Sheet1!$A$1:$L$18</definedName>
+    <definedName name="IL2022_vi_points" localSheetId="0">Sheet1!$A$1:$N$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,9 +40,11 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B01A873E-704A-F443-A1A6-2B5FE33563B9}" name="IL2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{FDA32347-E730-F645-AB75-3F5FFBD77B26}" name="IL2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-vi-points.csv" comma="1">
-      <textFields count="12">
+      <textFields count="14">
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>composite</t>
   </si>
@@ -91,16 +93,22 @@
     <t>SEM</t>
   </si>
   <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
     <t>Δ</t>
   </si>
   <si>
+    <t>Δ/MEAN</t>
+  </si>
+  <si>
     <t>Δ/SEM</t>
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>RANK</t>
   </si>
 </sst>
 </file>
@@ -135,21 +143,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -158,8 +157,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -182,7 +181,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="1" xr16:uid="{CAB89BF3-C391-2242-A51B-24619232D844}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="IL2022-vi-points" connectionId="1" xr16:uid="{D502D141-926B-E744-A26E-85A6813B0AC9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,27 +480,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E47403-D2F6-AD43-A3B0-A3797BC3117C}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365F3D7-BED8-1D4A-AC70-4A27E0093B0E}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A18"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -534,10 +533,16 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,13 +574,19 @@
         <v>1.5292999999999999E-2</v>
       </c>
       <c r="K2" s="3">
+        <v>4.8752999999999998E-2</v>
+      </c>
+      <c r="L2" s="3">
         <v>5.7010000000000003E-3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
+        <v>1.8175E-2</v>
+      </c>
+      <c r="N2" s="3">
         <v>0.37278499999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -607,13 +618,19 @@
         <v>1.3266999999999999E-2</v>
       </c>
       <c r="K3" s="3">
+        <v>4.0251000000000002E-2</v>
+      </c>
+      <c r="L3" s="3">
         <v>-6.4869999999999997E-3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
+        <v>-1.9681000000000001E-2</v>
+      </c>
+      <c r="N3" s="3">
         <v>-0.488958</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -645,13 +662,19 @@
         <v>8.0560000000000007E-3</v>
       </c>
       <c r="K4" s="3">
+        <v>2.0934000000000001E-2</v>
+      </c>
+      <c r="L4" s="3">
         <v>-7.6080000000000002E-3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
+        <v>-1.9768999999999998E-2</v>
+      </c>
+      <c r="N4" s="3">
         <v>-0.94438900000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -683,13 +706,19 @@
         <v>5.8479999999999999E-3</v>
       </c>
       <c r="K5" s="3">
+        <v>1.1068E-2</v>
+      </c>
+      <c r="L5" s="3">
         <v>8.8360000000000001E-3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
+        <v>1.6722999999999998E-2</v>
+      </c>
+      <c r="N5" s="3">
         <v>1.5109440000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -721,13 +750,19 @@
         <v>7.0260000000000001E-3</v>
       </c>
       <c r="K6" s="3">
+        <v>1.3029000000000001E-2</v>
+      </c>
+      <c r="L6" s="3">
         <v>1.4920000000000001E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
+        <v>2.7669999999999999E-3</v>
+      </c>
+      <c r="N6" s="3">
         <v>0.21235399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -759,13 +794,19 @@
         <v>6.744E-3</v>
       </c>
       <c r="K7" s="3">
+        <v>1.2434000000000001E-2</v>
+      </c>
+      <c r="L7" s="3">
         <v>1.6819999999999999E-3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
+        <v>3.101E-3</v>
+      </c>
+      <c r="N7" s="3">
         <v>0.24940699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -797,13 +838,19 @@
         <v>5.2630000000000003E-3</v>
       </c>
       <c r="K8" s="3">
+        <v>9.6369999999999997E-3</v>
+      </c>
+      <c r="L8" s="3">
         <v>5.2119999999999996E-3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
+        <v>9.5429999999999994E-3</v>
+      </c>
+      <c r="N8" s="3">
         <v>0.99031000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -835,13 +882,19 @@
         <v>5.9569999999999996E-3</v>
       </c>
       <c r="K9" s="3">
+        <v>1.0707E-2</v>
+      </c>
+      <c r="L9" s="3">
         <v>4.7619999999999997E-3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
+        <v>8.5590000000000006E-3</v>
+      </c>
+      <c r="N9" s="3">
         <v>0.799396</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -873,13 +926,19 @@
         <v>6.7019999999999996E-3</v>
       </c>
       <c r="K10" s="3">
+        <v>1.1832000000000001E-2</v>
+      </c>
+      <c r="L10" s="3">
         <v>6.6299999999999996E-4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>1.17E-3</v>
+      </c>
+      <c r="N10" s="3">
         <v>9.8926E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -911,13 +970,19 @@
         <v>1.1030999999999999E-2</v>
       </c>
       <c r="K11" s="3">
+        <v>1.8484E-2</v>
+      </c>
+      <c r="L11" s="3">
         <v>-1.1864E-2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
+        <v>-1.9879999999999998E-2</v>
+      </c>
+      <c r="N11" s="3">
         <v>-1.0755140000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -949,13 +1014,19 @@
         <v>1.5396E-2</v>
       </c>
       <c r="K12" s="3">
+        <v>2.3096999999999999E-2</v>
+      </c>
+      <c r="L12" s="3">
         <v>2.3019999999999998E-3</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>3.4529999999999999E-3</v>
+      </c>
+      <c r="N12" s="3">
         <v>0.14951900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -987,13 +1058,19 @@
         <v>9.0089999999999996E-3</v>
       </c>
       <c r="K13" s="3">
+        <v>1.3016E-2</v>
+      </c>
+      <c r="L13" s="3">
         <v>3.4680000000000002E-3</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
+        <v>5.0099999999999997E-3</v>
+      </c>
+      <c r="N13" s="3">
         <v>0.38494800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1025,13 +1102,19 @@
         <v>4.6709999999999998E-3</v>
       </c>
       <c r="K14" s="3">
+        <v>6.607E-3</v>
+      </c>
+      <c r="L14" s="3">
         <v>6.0980000000000001E-3</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>8.626E-3</v>
+      </c>
+      <c r="N14" s="3">
         <v>1.3055019999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1063,13 +1146,19 @@
         <v>5.8050000000000003E-3</v>
       </c>
       <c r="K15" s="3">
+        <v>8.0859999999999994E-3</v>
+      </c>
+      <c r="L15" s="3">
         <v>-4.4099999999999999E-3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
+        <v>-6.143E-3</v>
+      </c>
+      <c r="N15" s="3">
         <v>-0.75968999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1101,13 +1190,19 @@
         <v>5.77E-3</v>
       </c>
       <c r="K16" s="3">
+        <v>7.9179999999999997E-3</v>
+      </c>
+      <c r="L16" s="3">
         <v>4.6410000000000002E-3</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
+        <v>6.3680000000000004E-3</v>
+      </c>
+      <c r="N16" s="3">
         <v>0.80433299999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1139,13 +1234,19 @@
         <v>6.5160000000000001E-3</v>
       </c>
       <c r="K17" s="3">
+        <v>8.7060000000000002E-3</v>
+      </c>
+      <c r="L17" s="3">
         <v>-5.2449999999999997E-3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>-7.0080000000000003E-3</v>
+      </c>
+      <c r="N17" s="3">
         <v>-0.80494200000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1177,31 +1278,42 @@
         <v>8.0920000000000002E-3</v>
       </c>
       <c r="K18" s="3">
+        <v>9.3869999999999995E-3</v>
+      </c>
+      <c r="L18" s="3">
         <v>1.859E-3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>2.1570000000000001E-3</v>
+      </c>
+      <c r="N18" s="3">
         <v>0.22973299999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I20" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J20" s="3">
         <f>AVERAGE(J2:J18)</f>
         <v>8.2615294117647058E-3</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:L20" si="0">AVERAGE(K2:K18)</f>
-        <v>6.5305882352941185E-4</v>
+        <f t="shared" ref="K20:N20" si="0">AVERAGE(K2:K18)</f>
+        <v>1.6114470588235296E-2</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="0"/>
+        <v>6.5305882352941185E-4</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="0"/>
+        <v>7.7476470588235305E-4</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="0"/>
         <v>0.1785096470588235</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/IL/IL2022-rv-points.xlsx
+++ b/analysis/IL/IL2022-rv-points.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00CC168-A3DA-3147-BAC9-DC79F195F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BDE6CD-AA3C-BA4D-AB38-02698DAABD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="5880" windowWidth="27640" windowHeight="16940" xr2:uid="{2545852C-1770-104E-9AB9-A6A922204147}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{2545852C-1770-104E-9AB9-A6A922204147}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="IL2022_vi_points" localSheetId="0">Sheet1!$A$1:$N$18</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{FDA32347-E730-F645-AB75-3F5FFBD77B26}" name="IL2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-vi-points.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/dev/method_eval/data/IL/IL2022-vi-points.csv" comma="1">
       <textFields count="14">
         <textField/>
         <textField/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>composite</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -481,13 +484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365F3D7-BED8-1D4A-AC70-4A27E0093B0E}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +501,7 @@
     <col min="12" max="14" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -541,8 +544,11 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -586,7 +592,7 @@
         <v>0.37278499999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -630,7 +636,7 @@
         <v>-0.488958</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -674,7 +680,7 @@
         <v>-0.94438900000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -718,7 +724,7 @@
         <v>1.5109440000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -762,7 +768,7 @@
         <v>0.21235399999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -806,7 +812,7 @@
         <v>0.24940699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -850,7 +856,7 @@
         <v>0.99031000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -894,7 +900,7 @@
         <v>0.799396</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -938,7 +944,7 @@
         <v>9.8926E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -982,7 +988,7 @@
         <v>-1.0755140000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>0.14951900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>0.38494800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>1.3055019999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>-0.75968999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
